--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="402">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-beta</t>
+    <t>0.1.1-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-04T18:59:45-06:00</t>
+    <t>2023-01-05T09:18:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>A profile showing how LabReportTO is mapped into a FHIR DiagnosticReport.
+- Labs and Tests
+  - Pathology Reports
+  - Microbiology
+TODO confirm: Not clear if Labs and Tests (MHV-39107) is a different thing from Pathology Reports (MHV-39123) and Microbiology (MHV-39131). Muazzam spreadsheet has Pathology and MicroBiology; but not Lab. The Pathology and the MicroBiology example given is the same. So I presume that Labs is the same as Pathology and MicroBiology. I will thus go from the VDIF schema direct to FHIR.
+The given example aligns with the VIA_v4.0.7_uat.wsdl. The VDIF provides lab data in four schema
+- LabReportTO
+- LabTestTO
+- LabResultTO
+- LabSpecimenTO
+The LabReportTO is mapped onto a FHIR DiagnosticReport for laboratory reporting.
+The LabTestTO plus LabResultTO are combined and mapped onto a FHIR Observation for laboratory result that is contained in the DiagnosticReport. This does not ultimately need to be contained, but given the mock examples are so minimal these are not useful as standalone Observations.
+The LabSpecimen is mapped into a Specimen resource that is contained in the DiagnosticReport. These Specimen could be standalone resources, but given the mock examples are so minimal these are best as contained.
+The use of contained means that we do not need to de-duplicate the lab tests or specimen.
+TODO determine impact: Note that LOINC has a report on this topic https://loinc.org/file-access/?download-id=22762 the impact has not been assessed. I followed FHIR US-Core.
+TODO confirm: Are there other labReportTO.type values beyond SP, and MI? or is the example limited to just these? We really need to find a legitimate LOINC code for these two kinds of reports. I am not confident of the LOINC code I picked for the MI (LOINC#79381-0), I am slightly more confident of the code I picked for SP (LOINC#60567-5)
 - This profile is based on US-Core DiagnosticReport profile for Laboratory Results Reporting
 [Mapping from VDIF](StructureDefinition-VA.MHV.PHR.labReport-mappings.html#mappings-for-vdif-to-mhv-phr-labreportto)</t>
   </si>
@@ -270,7 +285,10 @@
     <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports</t>
   </si>
   <si>
-    <t>\-</t>
+    <t>The US Core Diagnostic Report Profile is based upon the core FHIR DiagnosticReport Resource and created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
+  </si>
+  <si>
+    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
   </si>
   <si>
     <t>Event</t>
@@ -679,10 +697,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
-  </si>
-  <si>
-    <t>us-core-8
-us-core-9</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -932,7 +946,7 @@
 Period</t>
   </si>
   <si>
-    <t>Diagnostically relevant time (typically the time of specimen collection)</t>
+    <t>Clinically relevant time/time-period for report</t>
   </si>
   <si>
     <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -948,10 +962,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-8
-</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -988,7 +998,7 @@
 </t>
   </si>
   <si>
-    <t>When the report was released</t>
+    <t>DateTime this version was made</t>
   </si>
   <si>
     <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
@@ -998,10 +1008,6 @@
   </si>
   <si>
     <t>Clinicians need to be able to check the date that the report was released.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-9
-</t>
   </si>
   <si>
     <t>OBR-22</t>
@@ -1833,7 +1839,7 @@
         <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1898,27 +1904,27 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1929,7 +1935,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -1938,19 +1944,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2000,13 +2006,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2032,10 +2038,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2046,7 +2052,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -2055,16 +2061,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2115,19 +2121,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2147,10 +2153,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2161,28 +2167,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2232,19 +2238,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2264,10 +2270,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2278,7 +2284,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2290,16 +2296,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2325,13 +2331,13 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>81</v>
@@ -2349,19 +2355,19 @@
         <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2381,21 +2387,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2407,16 +2413,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2466,19 +2472,19 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>81</v>
@@ -2487,7 +2493,7 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2498,14 +2504,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2524,16 +2530,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2583,7 +2589,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2604,7 +2610,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -2615,14 +2621,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2641,16 +2647,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2700,7 +2706,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2712,7 +2718,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2721,7 +2727,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -2732,14 +2738,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2752,25 +2758,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -2819,7 +2825,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2831,7 +2837,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2840,7 +2846,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -2851,18 +2857,18 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -2874,22 +2880,22 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -2938,7 +2944,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2950,34 +2956,34 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2996,19 +3002,19 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3057,7 +3063,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3069,16 +3075,16 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3089,10 +3095,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3103,7 +3109,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
@@ -3115,13 +3121,13 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3172,13 +3178,13 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
@@ -3193,7 +3199,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3204,14 +3210,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3230,16 +3236,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3277,19 +3283,19 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3301,7 +3307,7 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3310,7 +3316,7 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3321,10 +3327,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3335,7 +3341,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3344,19 +3350,19 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3406,19 +3412,19 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>81</v>
@@ -3427,7 +3433,7 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3438,10 +3444,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3452,7 +3458,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3461,19 +3467,19 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3499,13 +3505,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3523,19 +3529,19 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -3544,7 +3550,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3555,10 +3561,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3569,7 +3575,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -3578,19 +3584,19 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3640,19 +3646,19 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -3661,21 +3667,21 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3686,7 +3692,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3695,19 +3701,19 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3757,19 +3763,19 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -3778,7 +3784,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3789,10 +3795,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3800,32 +3806,32 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3850,11 +3856,11 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3872,19 +3878,19 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>213</v>
@@ -3915,19 +3921,19 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>220</v>
@@ -3984,7 +3990,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>218</v>
@@ -3999,7 +4005,7 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4032,19 +4038,19 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>220</v>
@@ -4118,7 +4124,7 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
@@ -4149,19 +4155,19 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>220</v>
@@ -4199,7 +4205,7 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>240</v>
@@ -4226,16 +4232,16 @@
         <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>242</v>
@@ -4269,7 +4275,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4281,13 +4287,13 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4338,13 +4344,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -4359,7 +4365,7 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4377,7 +4383,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4396,16 +4402,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4443,19 +4449,19 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4467,7 +4473,7 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4476,7 +4482,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4510,7 +4516,7 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>249</v>
@@ -4586,7 +4592,7 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4620,7 +4626,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4629,10 +4635,10 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>258</v>
@@ -4699,13 +4705,13 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
@@ -4736,19 +4742,19 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>267</v>
@@ -4816,13 +4822,13 @@
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>271</v>
@@ -4856,7 +4862,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4865,7 +4871,7 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>278</v>
@@ -4935,13 +4941,13 @@
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>283</v>
@@ -4972,19 +4978,19 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>289</v>
@@ -5043,7 +5049,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>287</v>
@@ -5052,25 +5058,25 @@
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5078,13 +5084,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>287</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>288</v>
@@ -5094,19 +5100,19 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>290</v>
@@ -5173,71 +5179,71 @@
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AN30" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AO30" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5286,46 +5292,46 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="AO31" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5335,28 +5341,28 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5405,7 +5411,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5417,34 +5423,34 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5460,22 +5466,22 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="O33" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5524,7 +5530,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5536,19 +5542,19 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AN33" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5556,10 +5562,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5582,19 +5588,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5643,7 +5649,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5655,13 +5661,13 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>273</v>
@@ -5670,19 +5676,19 @@
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5692,7 +5698,7 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
@@ -5701,19 +5707,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5762,7 +5768,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5774,30 +5780,30 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5820,16 +5826,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5879,7 +5885,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5891,7 +5897,7 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -5900,7 +5906,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5911,14 +5917,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5934,20 +5940,20 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5996,7 +6002,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6008,16 +6014,16 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6028,10 +6034,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6042,7 +6048,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6054,13 +6060,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6111,13 +6117,13 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
@@ -6132,7 +6138,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6143,14 +6149,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6169,16 +6175,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6228,7 +6234,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6240,7 +6246,7 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6249,7 +6255,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6260,14 +6266,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6280,25 +6286,25 @@
         <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6347,7 +6353,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6359,7 +6365,7 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6368,7 +6374,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6379,10 +6385,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6393,7 +6399,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6405,19 +6411,19 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6466,19 +6472,19 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -6487,7 +6493,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6498,10 +6504,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6509,10 +6515,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6521,16 +6527,16 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6581,19 +6587,19 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -6602,7 +6608,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6613,21 +6619,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6639,17 +6645,17 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6698,42 +6704,42 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO43" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6759,10 +6765,10 @@
         <v>220</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6792,10 +6798,10 @@
         <v>224</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6813,7 +6819,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6825,16 +6831,16 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6845,10 +6851,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6871,19 +6877,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6932,7 +6938,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6944,16 +6950,16 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="403">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1-beta</t>
+    <t>0.1.2-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T09:18:04-06:00</t>
+    <t>2023-01-10T07:11:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,24 +84,15 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile showing how LabReportTO is mapped into a FHIR DiagnosticReport.
-- Labs and Tests
-  - Pathology Reports
-  - Microbiology
-TODO confirm: Not clear if Labs and Tests (MHV-39107) is a different thing from Pathology Reports (MHV-39123) and Microbiology (MHV-39131). Muazzam spreadsheet has Pathology and MicroBiology; but not Lab. The Pathology and the MicroBiology example given is the same. So I presume that Labs is the same as Pathology and MicroBiology. I will thus go from the VDIF schema direct to FHIR.
-The given example aligns with the VIA_v4.0.7_uat.wsdl. The VDIF provides lab data in four schema
-- LabReportTO
-- LabTestTO
-- LabResultTO
-- LabSpecimenTO
-The LabReportTO is mapped onto a FHIR DiagnosticReport for laboratory reporting.
-The LabTestTO plus LabResultTO are combined and mapped onto a FHIR Observation for laboratory result that is contained in the DiagnosticReport. This does not ultimately need to be contained, but given the mock examples are so minimal these are not useful as standalone Observations.
-The LabSpecimen is mapped into a Specimen resource that is contained in the DiagnosticReport. These Specimen could be standalone resources, but given the mock examples are so minimal these are best as contained.
+    <t>A profile showing how LabReportTO is mapped into a FHIR DiagnosticReport, Observation, and Specimen.
+The given example aligns with the VIA_v4.0.7_uat.wsdl. LabReportTO, LabTestTO, LabResultTO and LabSpecimenTO
+The LabReportTO is mapped onto this FHIR DiagnosticReport for laboratory reporting. The mapping to [VDIF LabReportTO](StructureDefinition-VA.MHV.PHR.labReport-mappings.html#mappings-for-vdif-to-mhv-phr-labreportto)
+The LabTestTO plus LabResultTO are combined and mapped onto a FHIR [Observation for laboratory result](StructureDefinition-VA.MHV.PHR.labTest.html) that is contained in the DiagnosticReport. The map to [VDIF LabTestTO and LabResultTO](StructureDefinition-VA.MHV.PHR.labTest-mappings.html#mappings-for-vdif-to-mhv-phr-labtestto). This does not ultimately need to be contained, but given the mock examples are so minimal these are not useful as standalone Observations.
+The LabSpecimen is mapped into a [Specimen](StructureDefinition-VA.MHV.PHR.LabSpecimen.html) resource that is contained in the DiagnosticReport. The map to [VDIF LabSpecimenTO](StructureDefinition-VA.MHV.PHR.LabSpecimen-mappings.html#mappings-for-vdif-to-mhv-phr-labspecimen). These Specimen could be standalone resources, but given the mock examples are so minimal these are best as contained.
 The use of contained means that we do not need to de-duplicate the lab tests or specimen.
-TODO determine impact: Note that LOINC has a report on this topic https://loinc.org/file-access/?download-id=22762 the impact has not been assessed. I followed FHIR US-Core.
+TODO determine impact of the new LOINC report on this topic https://loinc.org/file-access/?download-id=22762 the impact has not been assessed. I followed FHIR US-Core.
 TODO confirm: Are there other labReportTO.type values beyond SP, and MI? or is the example limited to just these? We really need to find a legitimate LOINC code for these two kinds of reports. I am not confident of the LOINC code I picked for the MI (LOINC#79381-0), I am slightly more confident of the code I picked for SP (LOINC#60567-5)
-- This profile is based on US-Core DiagnosticReport profile for Laboratory Results Reporting
-[Mapping from VDIF](StructureDefinition-VA.MHV.PHR.labReport-mappings.html#mappings-for-vdif-to-mhv-phr-labreportto)</t>
+- This profile is based on US-Core DiagnosticReport profile for Laboratory Results Reporting and lab Observations.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -280,6 +271,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports</t>
@@ -711,7 +706,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>final</t>
+    <t>`final`</t>
   </si>
   <si>
     <t>DiagnosticReport.category</t>
@@ -756,7 +751,7 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>laboratory</t>
+    <t>`laboratory`</t>
   </si>
   <si>
     <t>DiagnosticReport.category:LaboratorySlice</t>
@@ -1830,16 +1825,16 @@
         <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1904,27 +1899,27 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1935,7 +1930,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -1944,19 +1939,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2006,13 +2001,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2038,10 +2033,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2052,7 +2047,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -2061,16 +2056,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2121,19 +2116,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2153,10 +2148,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2167,28 +2162,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2238,19 +2233,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2270,10 +2265,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2284,7 +2279,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2296,16 +2291,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2331,13 +2326,13 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>81</v>
@@ -2355,19 +2350,19 @@
         <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2387,21 +2382,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2413,16 +2408,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2472,19 +2467,19 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>81</v>
@@ -2493,7 +2488,7 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2504,14 +2499,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2530,16 +2525,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2589,7 +2584,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2610,7 +2605,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -2621,14 +2616,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2647,16 +2642,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2706,7 +2701,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2718,7 +2713,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2727,7 +2722,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -2738,14 +2733,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2758,25 +2753,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -2825,7 +2820,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2837,7 +2832,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2846,7 +2841,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -2857,18 +2852,18 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -2880,22 +2875,22 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -2944,7 +2939,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2956,34 +2951,34 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3002,19 +2997,19 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3063,7 +3058,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3075,16 +3070,16 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3095,10 +3090,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3109,7 +3104,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
@@ -3121,13 +3116,13 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3178,13 +3173,13 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
@@ -3199,7 +3194,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3210,14 +3205,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3236,16 +3231,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3283,19 +3278,19 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3307,7 +3302,7 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3316,7 +3311,7 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3327,10 +3322,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3341,7 +3336,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3350,19 +3345,19 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3412,19 +3407,19 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>81</v>
@@ -3433,7 +3428,7 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3444,10 +3439,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3458,7 +3453,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3467,19 +3462,19 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3505,13 +3500,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3529,19 +3524,19 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -3550,7 +3545,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3561,10 +3556,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3575,7 +3570,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -3584,19 +3579,19 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3646,19 +3641,19 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
@@ -3667,21 +3662,21 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3692,7 +3687,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3701,19 +3696,19 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3763,19 +3758,19 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -3784,7 +3779,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3795,10 +3790,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3806,32 +3801,32 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3856,11 +3851,11 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3878,74 +3873,74 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3971,29 +3966,29 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4005,64 +4000,64 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4073,7 +4068,7 @@
         <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>81</v>
@@ -4088,13 +4083,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4112,7 +4107,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4124,19 +4119,19 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4144,42 +4139,42 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4205,13 +4200,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4229,31 +4224,31 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4261,10 +4256,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4275,7 +4270,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4287,13 +4282,13 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4344,13 +4339,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -4365,7 +4360,7 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4376,14 +4371,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4402,16 +4397,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4449,19 +4444,19 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4473,7 +4468,7 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4482,7 +4477,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4493,10 +4488,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4516,22 +4511,22 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4580,7 +4575,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4592,16 +4587,16 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4612,10 +4607,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4626,7 +4621,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4635,22 +4630,22 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4699,28 +4694,28 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -4731,43 +4726,43 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -4816,53 +4811,53 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -4871,22 +4866,22 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4935,31 +4930,31 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -4967,45 +4962,45 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5042,41 +5037,41 @@
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5084,47 +5079,47 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5173,77 +5168,77 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5292,46 +5287,46 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5341,28 +5336,28 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5411,7 +5406,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5423,34 +5418,34 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5466,22 +5461,22 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5530,7 +5525,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5542,19 +5537,19 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5562,10 +5557,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5588,19 +5583,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5649,7 +5644,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5661,34 +5656,34 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5698,7 +5693,7 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
@@ -5707,19 +5702,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5768,7 +5763,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5780,30 +5775,30 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5826,16 +5821,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5885,7 +5880,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5897,7 +5892,7 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -5906,7 +5901,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5917,14 +5912,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5940,20 +5935,20 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6002,7 +5997,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6014,16 +6009,16 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6034,10 +6029,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6048,7 +6043,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6060,13 +6055,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6117,13 +6112,13 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
@@ -6138,7 +6133,7 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6149,14 +6144,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6175,16 +6170,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6234,7 +6229,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6246,7 +6241,7 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6255,7 +6250,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6266,14 +6261,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6286,25 +6281,25 @@
         <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6353,7 +6348,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6365,7 +6360,7 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6374,7 +6369,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6385,10 +6380,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6399,7 +6394,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6411,19 +6406,19 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6472,19 +6467,19 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -6493,7 +6488,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6504,10 +6499,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6515,10 +6510,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6527,16 +6522,16 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6587,19 +6582,19 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -6608,7 +6603,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6619,21 +6614,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6645,17 +6640,17 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6704,42 +6699,42 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6762,13 +6757,13 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6795,13 +6790,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6819,7 +6814,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6831,16 +6826,16 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6851,10 +6846,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6877,19 +6872,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6938,7 +6933,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6950,16 +6945,16 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T07:11:45-06:00</t>
+    <t>2023-01-10T08:15:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="405">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2-beta</t>
+    <t>0.1.3-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T08:15:50-06:00</t>
+    <t>2023-01-11T06:10:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,10 +280,7 @@
     <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports</t>
   </si>
   <si>
-    <t>The US Core Diagnostic Report Profile is based upon the core FHIR DiagnosticReport Resource and created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
-  </si>
-  <si>
-    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>Event</t>
@@ -692,6 +689,10 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+  </si>
+  <si>
+    <t>us-core-8
+us-core-9</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -941,7 +942,7 @@
 Period</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for report</t>
+    <t>Diagnostically relevant time (typically the time of specimen collection)</t>
   </si>
   <si>
     <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -957,6 +958,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">us-core-8
+</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -993,7 +998,7 @@
 </t>
   </si>
   <si>
-    <t>DateTime this version was made</t>
+    <t>When the report was released</t>
   </si>
   <si>
     <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
@@ -1003,6 +1008,10 @@
   </si>
   <si>
     <t>Clinicians need to be able to check the date that the report was released.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us-core-9
+</t>
   </si>
   <si>
     <t>OBR-22</t>
@@ -1834,7 +1843,7 @@
         <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1899,27 +1908,27 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO2" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1930,28 +1939,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2001,13 +2010,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2033,10 +2042,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2047,25 +2056,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2116,19 +2125,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2148,10 +2157,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2162,28 +2171,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2233,19 +2242,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2265,10 +2274,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2279,7 +2288,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2291,16 +2300,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2326,43 +2335,43 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2382,21 +2391,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2408,16 +2417,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2467,28 +2476,28 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2499,14 +2508,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2525,16 +2534,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2584,7 +2593,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2605,7 +2614,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -2616,14 +2625,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2642,16 +2651,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2701,7 +2710,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2713,7 +2722,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2722,7 +2731,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -2733,14 +2742,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2753,25 +2762,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -2820,7 +2829,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2832,7 +2841,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -2841,7 +2850,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -2852,18 +2861,18 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -2875,22 +2884,22 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -2939,7 +2948,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2951,34 +2960,34 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2997,19 +3006,19 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3058,7 +3067,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3070,16 +3079,16 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3090,10 +3099,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3104,7 +3113,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
@@ -3116,13 +3125,13 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3173,28 +3182,28 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3205,14 +3214,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3231,16 +3240,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3278,19 +3287,19 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AC14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AD14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3302,7 +3311,7 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3311,7 +3320,7 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3322,10 +3331,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3336,28 +3345,28 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3407,19 +3416,19 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>81</v>
@@ -3428,7 +3437,7 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3439,10 +3448,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3453,28 +3462,28 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3500,43 +3509,43 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
@@ -3545,7 +3554,7 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3556,10 +3565,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3570,28 +3579,28 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3641,42 +3650,42 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>202</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3687,28 +3696,28 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3758,19 +3767,19 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
@@ -3779,7 +3788,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3790,10 +3799,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3801,32 +3810,32 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="I19" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3851,41 +3860,41 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>214</v>
@@ -3916,19 +3925,19 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>221</v>
@@ -3985,7 +3994,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>219</v>
@@ -4000,7 +4009,7 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
@@ -4033,19 +4042,19 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="I21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>221</v>
@@ -4119,7 +4128,7 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
@@ -4150,19 +4159,19 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="I22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>221</v>
@@ -4200,7 +4209,7 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>241</v>
@@ -4227,16 +4236,16 @@
         <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>243</v>
@@ -4270,7 +4279,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4282,13 +4291,13 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4339,28 +4348,28 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4378,7 +4387,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4397,16 +4406,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4444,19 +4453,19 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC24" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AC24" t="s" s="2">
+      <c r="AD24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AD24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4468,7 +4477,7 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4477,7 +4486,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4511,7 +4520,7 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>250</v>
@@ -4587,7 +4596,7 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4621,19 +4630,19 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>259</v>
@@ -4700,13 +4709,13 @@
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
@@ -4737,19 +4746,19 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="I27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>268</v>
@@ -4817,13 +4826,13 @@
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>272</v>
@@ -4857,16 +4866,16 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>279</v>
@@ -4936,13 +4945,13 @@
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>284</v>
@@ -4973,19 +4982,19 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="I29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>290</v>
@@ -5044,7 +5053,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>288</v>
@@ -5053,25 +5062,25 @@
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5079,13 +5088,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>288</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>289</v>
@@ -5095,19 +5104,19 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="I30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>291</v>
@@ -5174,71 +5183,71 @@
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="I31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5287,46 +5296,46 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5336,28 +5345,28 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5406,7 +5415,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5418,34 +5427,34 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5461,22 +5470,22 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5525,7 +5534,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5537,19 +5546,19 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5557,10 +5566,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5583,19 +5592,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5644,7 +5653,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5656,13 +5665,13 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>274</v>
@@ -5671,19 +5680,19 @@
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5693,7 +5702,7 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
@@ -5702,19 +5711,19 @@
         <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5763,7 +5772,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5775,30 +5784,30 @@
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5821,16 +5830,16 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5880,7 +5889,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5892,7 +5901,7 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -5901,7 +5910,7 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5912,14 +5921,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5935,20 +5944,20 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -5997,7 +6006,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6009,16 +6018,16 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6029,10 +6038,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6043,7 +6052,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6055,13 +6064,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6112,28 +6121,28 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6144,14 +6153,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6170,16 +6179,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6229,7 +6238,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6241,7 +6250,7 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
@@ -6250,7 +6259,7 @@
         <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6261,14 +6270,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6281,25 +6290,25 @@
         <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6348,7 +6357,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6360,7 +6369,7 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6369,7 +6378,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6380,10 +6389,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6394,7 +6403,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6406,19 +6415,19 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6467,19 +6476,19 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -6488,7 +6497,7 @@
         <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6499,10 +6508,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6510,28 +6519,28 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6582,19 +6591,19 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -6603,7 +6612,7 @@
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6614,21 +6623,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6640,17 +6649,17 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6699,42 +6708,42 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6760,10 +6769,10 @@
         <v>221</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6793,10 +6802,10 @@
         <v>225</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6814,7 +6823,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6826,16 +6835,16 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6846,10 +6855,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6872,19 +6881,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6933,7 +6942,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6945,16 +6954,16 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T06:10:13-06:00</t>
+    <t>2023-02-02T16:50:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -92,7 +92,7 @@
 The use of contained means that we do not need to de-duplicate the lab tests or specimen.
 TODO determine impact of the new LOINC report on this topic https://loinc.org/file-access/?download-id=22762 the impact has not been assessed. I followed FHIR US-Core.
 TODO confirm: Are there other labReportTO.type values beyond SP, and MI? or is the example limited to just these? We really need to find a legitimate LOINC code for these two kinds of reports. I am not confident of the LOINC code I picked for the MI (LOINC#79381-0), I am slightly more confident of the code I picked for SP (LOINC#60567-5)
-- This profile is based on US-Core DiagnosticReport profile for Laboratory Results Reporting and lab Observations.</t>
+- This profile should be based on US-Core DiagnosticReport profile for Laboratory Results Reporting and lab Observations.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:47:22-06:00</t>
+    <t>2023-03-05T12:38:40-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="469">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5-beta</t>
+    <t>0.1.6-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T12:38:40-06:00</t>
+    <t>2023-03-23T11:34:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -505,6 +505,13 @@
     <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -517,7 +524,237 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>LabReportTO.id</t>
+    <t>{StationNbr} and {LabReportTO.id}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.use</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.type</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.system</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.value</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.value</t>
+  </si>
+  <si>
+    <t>`LabReportTO` | `.` | {LabReportTO.id}</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.period</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier:TOid.assigner</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>DiagnosticReport.basedOn</t>
@@ -555,39 +792,7 @@
     <t>DiagnosticReport.basedOn.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.basedOn.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.basedOn.reference</t>
@@ -620,9 +825,6 @@
   </si>
   <si>
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
@@ -685,9 +887,6 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
   </si>
   <si>
@@ -715,10 +914,6 @@
   <si>
     <t>Department
 Sub-departmentServiceDiscipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Service category</t>
@@ -1630,7 +1825,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1658,12 +1853,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.7421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="65.98046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -2936,16 +3131,14 @@
         <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>147</v>
@@ -2963,38 +3156,40 @@
         <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -3003,22 +3198,22 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3067,7 +3262,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3082,16 +3277,16 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3099,10 +3294,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3125,13 +3320,13 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3182,7 +3377,7 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3203,7 +3398,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3214,10 +3409,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3246,7 +3441,7 @@
         <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>139</v>
@@ -3287,19 +3482,19 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3320,7 +3515,7 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3331,10 +3526,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3342,7 +3537,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>90</v>
@@ -3351,24 +3546,26 @@
         <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3377,7 +3574,7 @@
         <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>81</v>
@@ -3392,13 +3589,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3416,7 +3613,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3425,7 +3622,7 @@
         <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>102</v>
@@ -3434,10 +3631,10 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3448,10 +3645,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3474,18 +3671,20 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3509,13 +3708,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3533,7 +3732,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3551,10 +3750,10 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3565,10 +3764,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3591,18 +3790,20 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3614,7 +3815,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3650,7 +3851,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3668,24 +3869,24 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3708,16 +3909,16 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3731,7 +3932,7 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -3767,7 +3968,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3785,10 +3986,10 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3799,10 +4000,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3810,33 +4011,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -3860,11 +4059,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3882,56 +4083,56 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
@@ -3940,16 +4141,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3975,35 +4176,37 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4015,60 +4218,60 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4077,7 +4280,7 @@
         <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>81</v>
@@ -4092,13 +4295,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -4116,7 +4319,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4131,16 +4334,16 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4148,43 +4351,41 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4209,13 +4410,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4233,10 +4434,10 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>90</v>
@@ -4245,19 +4446,19 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4272,14 +4473,14 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4291,15 +4492,17 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4336,31 +4539,31 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
@@ -4369,7 +4572,7 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4387,14 +4590,14 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4403,19 +4606,19 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4453,31 +4656,31 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4486,7 +4689,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4497,10 +4700,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4511,7 +4714,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4523,20 +4726,18 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4560,13 +4761,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4584,13 +4785,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -4602,10 +4803,10 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4616,10 +4817,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4642,20 +4843,18 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4703,7 +4902,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4721,38 +4920,38 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
@@ -4761,7 +4960,7 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>269</v>
@@ -4769,10 +4968,10 @@
       <c r="M27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>271</v>
       </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -4820,7 +5019,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4835,62 +5034,60 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4915,13 +5112,11 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -4939,53 +5134,53 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>91</v>
@@ -4997,20 +5192,18 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5034,74 +5227,74 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
@@ -5116,20 +5309,18 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>303</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5138,7 +5329,7 @@
         <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>81</v>
@@ -5153,13 +5344,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5177,50 +5368,50 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>90</v>
@@ -5235,20 +5426,18 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5272,13 +5461,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5296,78 +5485,74 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>318</v>
+        <v>165</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>166</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5415,46 +5600,46 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>325</v>
+        <v>169</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5470,23 +5655,21 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>330</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>332</v>
+        <v>172</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5522,19 +5705,19 @@
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5546,19 +5729,19 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>169</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5566,10 +5749,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5589,22 +5772,22 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5653,7 +5836,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5671,59 +5854,59 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>345</v>
+        <v>165</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5772,13 +5955,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -5790,58 +5973,58 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -5889,13 +6072,13 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
@@ -5904,38 +6087,38 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>339</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -5947,17 +6130,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6006,13 +6191,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -6021,16 +6206,16 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6038,14 +6223,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6055,25 +6240,29 @@
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>170</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>171</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6109,19 +6298,17 @@
         <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6130,22 +6317,22 @@
         <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>174</v>
+        <v>363</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6153,44 +6340,48 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>135</v>
+        <v>353</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>137</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6238,77 +6429,77 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>180</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>174</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>136</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>145</v>
+        <v>375</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6357,77 +6548,77 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>133</v>
+        <v>378</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>170</v>
+        <v>382</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6476,13 +6667,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -6491,38 +6682,38 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6534,16 +6725,20 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -6591,13 +6786,13 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
@@ -6606,16 +6801,16 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -6623,21 +6818,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6649,17 +6844,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6708,13 +6905,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -6726,28 +6923,28 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6757,7 +6954,7 @@
         <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
@@ -6766,16 +6963,20 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>221</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -6799,13 +7000,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6823,7 +7024,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6841,24 +7042,24 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6881,20 +7082,18 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -6942,7 +7141,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6960,20 +7159,1073 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO45">
+  <autoFilter ref="A1:AO54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6983,7 +8235,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,8 +87,8 @@
     <t>A profile showing how LabReportTO is mapped into a FHIR DiagnosticReport, Observation, and Specimen.
 The given example aligns with the VIA_v4.0.7_uat.wsdl. LabReportTO, LabTestTO, LabResultTO and LabSpecimenTO
 The LabReportTO is mapped onto this FHIR DiagnosticReport for laboratory reporting. The mapping to [VDIF LabReportTO](StructureDefinition-VA.MHV.PHR.labReport-mappings.html#mappings-for-vdif-to-mhv-phr-labreportto)
-The LabTestTO plus LabResultTO are combined and mapped onto a FHIR [Observation for laboratory result](StructureDefinition-VA.MHV.PHR.labTest.html) that is contained in the DiagnosticReport. The map to [VDIF LabTestTO and LabResultTO](StructureDefinition-VA.MHV.PHR.labTest-mappings.html#mappings-for-vdif-to-mhv-phr-labtestto). This does not ultimately need to be contained, but given the mock examples are so minimal these are not useful as standalone Observations.
-The LabSpecimen is mapped into a [Specimen](StructureDefinition-VA.MHV.PHR.LabSpecimen.html) resource that is contained in the DiagnosticReport. The map to [VDIF LabSpecimenTO](StructureDefinition-VA.MHV.PHR.LabSpecimen-mappings.html#mappings-for-vdif-to-mhv-phr-labspecimen). These Specimen could be standalone resources, but given the mock examples are so minimal these are best as contained.
+The LabTestTO plus LabResultTO are combined and mapped onto a FHIR [Observation for laboratory result](StructureDefinition-VA.MHV.PHR.labTest.html) that is contained in the DiagnosticReport. The map to [VDIF LabTestTO and LabResultTO](StructureDefinition-VA.MHV.PHR.labTest-mappings.html#mappings-for-vdif-to-mhv-phr-labtestto).
+The LabSpecimen is mapped into a [Specimen](StructureDefinition-VA.MHV.PHR.LabSpecimen.html) resource that is contained in the DiagnosticReport. The map to [VDIF LabSpecimenTO](StructureDefinition-VA.MHV.PHR.LabSpecimen-mappings.html#mappings-for-vdif-to-mhv-phr-labspecimen).
 The use of contained means that we do not need to de-duplicate the lab tests or specimen.
 TODO determine impact of the new LOINC report on this topic https://loinc.org/file-access/?download-id=22762 the impact has not been assessed. I followed FHIR US-Core.
 TODO confirm: Are there other labReportTO.type values beyond SP, and MI? or is the example limited to just these? We really need to find a legitimate LOINC code for these two kinds of reports. I am not confident of the LOINC code I picked for the MI (LOINC#79381-0), I am slightly more confident of the code I picked for SP (LOINC#60567-5)
@@ -1282,7 +1282,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.LabSpecimen) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1311,7 +1311,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab)
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.labTest) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1333,7 +1333,7 @@
     <t>outboundRelationship[typeCode=COMP].target</t>
   </si>
   <si>
-    <t>(0..*) Observation(LabResultTO)</t>
+    <t>Contained Observation(LabResultTO)</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
@@ -6118,7 +6118,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6713,7 +6713,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -7070,7 +7070,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7187,7 +7187,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -8006,7 +8006,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8121,7 +8121,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -998,6 +998,9 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
+    <t>LabReportTO.type -- should be converted to LOINC:  MI -&gt; LOINC#79381-0,  SP -&gt; LOINC#60567-5</t>
+  </si>
+  <si>
     <t>DiagnosticReport.code.id</t>
   </si>
   <si>
@@ -1021,6 +1024,9 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/LabReportVS</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1873,7 +1879,7 @@
     <col min="38" max="38" width="166.02734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="118.1328125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="65.34765625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="87.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5512,15 +5518,15 @@
         <v>310</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5632,10 +5638,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5749,10 +5755,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5763,10 +5769,10 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
@@ -5775,19 +5781,19 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5812,13 +5818,11 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -5836,7 +5840,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5854,10 +5858,10 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5868,10 +5872,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5879,13 +5883,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
@@ -5897,16 +5901,16 @@
         <v>165</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5955,7 +5959,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5973,10 +5977,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5987,14 +5991,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6013,17 +6017,17 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6072,7 +6076,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6087,31 +6091,31 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6130,19 +6134,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6191,7 +6195,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6206,16 +6210,16 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6223,14 +6227,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6249,19 +6253,19 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6298,7 +6302,7 @@
         <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
@@ -6308,7 +6312,7 @@
         <v>155</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6317,22 +6321,22 @@
         <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6340,16 +6344,16 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6368,19 +6372,19 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6429,7 +6433,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6438,37 +6442,37 @@
         <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6487,19 +6491,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6548,7 +6552,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6557,7 +6561,7 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>102</v>
@@ -6566,28 +6570,28 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6606,19 +6610,19 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6667,7 +6671,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6682,31 +6686,31 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6725,19 +6729,19 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6786,7 +6790,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6801,16 +6805,16 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -6818,10 +6822,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6844,19 +6848,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6905,7 +6909,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6923,28 +6927,28 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6963,19 +6967,19 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7024,7 +7028,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7042,24 +7046,24 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7082,16 +7086,16 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7141,7 +7145,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7162,7 +7166,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7173,14 +7177,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7199,17 +7203,17 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7258,7 +7262,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7276,10 +7280,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7290,10 +7294,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7405,10 +7409,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7522,14 +7526,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7551,10 +7555,10 @@
         <v>136</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>139</v>
@@ -7609,7 +7613,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7641,10 +7645,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7670,16 +7674,16 @@
         <v>165</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7728,7 +7732,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7749,7 +7753,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7760,10 +7764,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7786,13 +7790,13 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7843,7 +7847,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>90</v>
@@ -7864,7 +7868,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -7875,14 +7879,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7904,14 +7908,14 @@
         <v>165</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7960,7 +7964,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7978,24 +7982,24 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8021,10 +8025,10 @@
         <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8054,10 +8058,10 @@
         <v>289</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8075,7 +8079,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8093,10 +8097,10 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8107,10 +8111,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8133,19 +8137,19 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8194,7 +8198,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8212,10 +8216,10 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -92,7 +92,7 @@
 The use of contained means that we do not need to de-duplicate the lab tests or specimen.
 TODO determine impact of the new LOINC report on this topic https://loinc.org/file-access/?download-id=22762 the impact has not been assessed. I followed FHIR US-Core.
 TODO confirm: Are there other labReportTO.type values beyond SP, and MI? or is the example limited to just these? We really need to find a legitimate LOINC code for these two kinds of reports. I am not confident of the LOINC code I picked for the MI (LOINC#79381-0), I am slightly more confident of the code I picked for SP (LOINC#60567-5)
-- This profile should be based on US-Core DiagnosticReport profile for Laboratory Results Reporting and lab Observations.</t>
+- This profile should be based on US-Core DiagnosticReport profile for Laboratory Results Reporting and lab Observations. BUT IS NOT because us-core requires us Practitioner and we can't be compliant with that. So I have replicated the us-core requirements here.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -122,7 +122,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport-lab</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DiagnosticReport</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -261,7 +261,7 @@
   </si>
   <si>
     <t>Report
-TestResultResultsLabsLaboratoryLab ResultLab Report</t>
+TestResultResultsLabsLaboratory</t>
   </si>
   <si>
     <t>0</t>
@@ -280,7 +280,10 @@
     <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports</t>
   </si>
   <si>
-    <t>\-</t>
+    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.</t>
+  </si>
+  <si>
+    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
   </si>
   <si>
     <t>Event</t>
@@ -887,11 +890,7 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
-  </si>
-  <si>
-    <t>us-core-8
-us-core-9</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -971,19 +970,16 @@
 </t>
   </si>
   <si>
-    <t>US Core Laboratory Report Order Code</t>
-  </si>
-  <si>
-    <t>The test, panel or battery that was ordered.</t>
-  </si>
-  <si>
-    <t>UsageNote= The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.</t>
-  </si>
-  <si>
-    <t>LOINC codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-lab-codes</t>
+    <t>Name/Code for this diagnostic report</t>
+  </si>
+  <si>
+    <t>A code or name that describes this diagnostic report.</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1069,7 +1065,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
 </t>
   </si>
   <si>
@@ -1143,7 +1139,7 @@
 Period</t>
   </si>
   <si>
-    <t>Diagnostically relevant time (typically the time of specimen collection)</t>
+    <t>Clinically relevant time/time-period for report</t>
   </si>
   <si>
     <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -1159,10 +1155,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-8
-</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1199,7 +1191,7 @@
 </t>
   </si>
   <si>
-    <t>When the report was released</t>
+    <t>DateTime this version was made</t>
   </si>
   <si>
     <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
@@ -1209,10 +1201,6 @@
   </si>
   <si>
     <t>Clinicians need to be able to check the date that the report was released.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-9
-</t>
   </si>
   <si>
     <t>OBR-22</t>
@@ -1231,11 +1219,11 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole)
+    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.organization|https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.practitioner)
 </t>
   </si>
   <si>
-    <t>Responsible Diagnostic Service</t>
+    <t>LabReportTO.facility</t>
   </si>
   <si>
     <t>The diagnostic service that is responsible for issuing the report.</t>
@@ -1850,7 +1838,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="171.1953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1865,7 +1853,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.98046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -2044,7 +2032,7 @@
         <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2109,27 +2097,27 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2140,7 +2128,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -2149,19 +2137,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2211,13 +2199,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2243,10 +2231,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2257,7 +2245,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -2266,16 +2254,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2326,19 +2314,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2358,10 +2346,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2372,28 +2360,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2443,19 +2431,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2475,10 +2463,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2489,7 +2477,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2501,16 +2489,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2536,13 +2524,13 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>81</v>
@@ -2560,19 +2548,19 @@
         <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2592,21 +2580,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2618,16 +2606,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2677,19 +2665,19 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>81</v>
@@ -2698,7 +2686,7 @@
         <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>81</v>
@@ -2709,14 +2697,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2735,16 +2723,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2794,7 +2782,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2815,7 +2803,7 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>81</v>
@@ -2826,14 +2814,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2852,16 +2840,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2911,7 +2899,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2923,7 +2911,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2932,7 +2920,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -2943,14 +2931,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2963,25 +2951,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -3030,7 +3018,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3042,7 +3030,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3051,7 +3039,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3062,18 +3050,18 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -3085,22 +3073,22 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3137,17 +3125,17 @@
         <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3159,43 +3147,43 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -3204,22 +3192,22 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3268,7 +3256,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3280,19 +3268,19 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3300,10 +3288,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3314,7 +3302,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
@@ -3326,13 +3314,13 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3383,13 +3371,13 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
@@ -3404,7 +3392,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3415,14 +3403,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3441,16 +3429,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3488,19 +3476,19 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3512,7 +3500,7 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3521,7 +3509,7 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3532,10 +3520,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3543,34 +3531,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3580,7 +3568,7 @@
         <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>81</v>
@@ -3595,13 +3583,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3619,28 +3607,28 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3651,10 +3639,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3665,7 +3653,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>81</v>
@@ -3674,22 +3662,22 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3714,13 +3702,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3738,28 +3726,28 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3770,10 +3758,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3784,7 +3772,7 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -3793,22 +3781,22 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3821,7 +3809,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3857,28 +3845,28 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3889,10 +3877,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3903,7 +3891,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3912,19 +3900,19 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3938,7 +3926,7 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -3974,28 +3962,28 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4006,10 +3994,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4020,7 +4008,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4029,16 +4017,16 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4089,28 +4077,28 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4121,10 +4109,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4135,7 +4123,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -4144,19 +4132,19 @@
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4206,28 +4194,28 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4238,14 +4226,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4264,19 +4252,19 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4325,7 +4313,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4337,16 +4325,16 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4357,10 +4345,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4371,7 +4359,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4383,13 +4371,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4440,13 +4428,13 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4461,7 +4449,7 @@
         <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4472,14 +4460,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4498,16 +4486,16 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4545,19 +4533,19 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4569,7 +4557,7 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
@@ -4578,7 +4566,7 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4589,10 +4577,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4603,7 +4591,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4612,19 +4600,19 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4674,19 +4662,19 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4695,7 +4683,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4706,10 +4694,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4720,7 +4708,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4729,19 +4717,19 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4767,13 +4755,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4791,19 +4779,19 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4812,7 +4800,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4823,10 +4811,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4837,7 +4825,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4846,19 +4834,19 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4908,19 +4896,19 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>81</v>
@@ -4929,21 +4917,21 @@
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4954,7 +4942,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4963,19 +4951,19 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5025,19 +5013,19 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
@@ -5046,7 +5034,7 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5057,10 +5045,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5068,32 +5056,32 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5118,11 +5106,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5140,19 +5130,19 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>279</v>
@@ -5183,22 +5173,22 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>286</v>
@@ -5252,7 +5242,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>284</v>
@@ -5267,7 +5257,7 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
@@ -5300,22 +5290,22 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>286</v>
@@ -5386,7 +5376,7 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
@@ -5417,22 +5407,22 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>302</v>
@@ -5440,9 +5430,7 @@
       <c r="M31" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>304</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5467,13 +5455,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5494,39 +5482,39 @@
         <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5537,7 +5525,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5549,13 +5537,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5606,13 +5594,13 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
@@ -5627,7 +5615,7 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5638,14 +5626,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5664,16 +5652,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5711,19 +5699,19 @@
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5735,7 +5723,7 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
@@ -5744,7 +5732,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5755,10 +5743,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5769,31 +5757,31 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5818,29 +5806,29 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5852,16 +5840,16 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5872,10 +5860,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5883,34 +5871,34 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5959,28 +5947,28 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5991,43 +5979,43 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6076,46 +6064,46 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6131,22 +6119,22 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6195,31 +6183,31 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6227,45 +6215,45 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6302,41 +6290,41 @@
         <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>81</v>
@@ -6344,47 +6332,47 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="D39" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6433,77 +6421,77 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AM39" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AO39" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6552,46 +6540,46 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AO40" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6601,28 +6589,28 @@
         <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6671,7 +6659,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6683,34 +6671,34 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6726,22 +6714,22 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="O42" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6790,7 +6778,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6802,19 +6790,19 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -6822,10 +6810,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6839,7 +6827,7 @@
         <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
@@ -6848,19 +6836,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6909,7 +6897,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6921,34 +6909,34 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6958,7 +6946,7 @@
         <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
@@ -6967,19 +6955,19 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7028,7 +7016,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7040,30 +7028,30 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7086,16 +7074,16 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7145,7 +7133,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7157,7 +7145,7 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7166,7 +7154,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7177,14 +7165,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7200,20 +7188,20 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7262,7 +7250,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7274,16 +7262,16 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7294,10 +7282,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7308,7 +7296,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7320,13 +7308,13 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7377,13 +7365,13 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7398,7 +7386,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7409,14 +7397,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7435,16 +7423,16 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7494,7 +7482,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7506,7 +7494,7 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7515,7 +7503,7 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7526,14 +7514,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7546,25 +7534,25 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7613,7 +7601,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7625,7 +7613,7 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
@@ -7634,7 +7622,7 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7645,10 +7633,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7659,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7671,19 +7659,19 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7732,19 +7720,19 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -7753,7 +7741,7 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7764,10 +7752,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7775,10 +7763,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
@@ -7787,16 +7775,16 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7847,19 +7835,19 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
@@ -7868,7 +7856,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -7879,24 +7867,24 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>81</v>
@@ -7905,17 +7893,17 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7964,42 +7952,42 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8022,13 +8010,13 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8058,10 +8046,10 @@
         <v>289</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8079,7 +8067,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8091,16 +8079,16 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8111,10 +8099,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8137,19 +8125,19 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8198,7 +8186,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8210,16 +8198,16 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.15-beta</t>
+    <t>0.1.16-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T11:47:17-05:00</t>
+    <t>2023-06-13T11:38:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,129 +135,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: VDIF to MHV-PHR</t>
   </si>
   <si>
     <t>Report
@@ -1613,10 +1490,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1819,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1832,11 +1709,10 @@
     <col min="2" max="2" width="39.43359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="60.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="171.1953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1844,6380 +1720,6255 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="59.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.0859375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="166.02734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="118.1328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="87.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="AN1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>93</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="D29" t="s" s="2">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>296</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>304</v>
+        <v>40</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>308</v>
+        <v>129</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>310</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>125</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>341</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="D38" t="s" s="2">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>368</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>390</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>392</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>386</v>
+        <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>388</v>
+        <v>298</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>405</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>407</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>413</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>415</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>421</v>
+        <v>373</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>423</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>424</v>
+        <v>125</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>425</v>
+        <v>126</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>426</v>
+        <v>127</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>422</v>
+        <v>128</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>428</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>414</v>
+        <v>129</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>136</v>
+        <v>391</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>138</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>173</v>
+        <v>393</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>176</v>
+        <v>394</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>432</v>
+        <v>40</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>140</v>
+        <v>398</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>146</v>
+        <v>399</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>166</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>443</v>
+        <v>125</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>448</v>
+        <v>40</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>454</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>458</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>459</v>
+        <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8227,7 +7978,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,15 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile showing how LabReportTO is mapped into a FHIR DiagnosticReport, Observation, and Specimen.
-The given example aligns with the VIA_v4.0.7_uat.wsdl. LabReportTO, LabTestTO, LabResultTO and LabSpecimenTO
-The LabReportTO is mapped onto this FHIR DiagnosticReport for laboratory reporting. The mapping to [VDIF LabReportTO](StructureDefinition-VA.MHV.PHR.labReport-mappings.html#mappings-for-vdif-to-mhv-phr-labreportto)
-The LabTestTO plus LabResultTO are combined and mapped onto a FHIR [Observation for laboratory result](StructureDefinition-VA.MHV.PHR.labTest.html) that is contained in the DiagnosticReport. The map to [VDIF LabTestTO and LabResultTO](StructureDefinition-VA.MHV.PHR.labTest-mappings.html#mappings-for-vdif-to-mhv-phr-labtestto).
-The LabSpecimen is mapped into a [Specimen](StructureDefinition-VA.MHV.PHR.LabSpecimen.html) resource that is contained in the DiagnosticReport. The map to [VDIF LabSpecimenTO](StructureDefinition-VA.MHV.PHR.LabSpecimen-mappings.html#mappings-for-vdif-to-mhv-phr-labspecimen).
-The use of contained means that we do not need to de-duplicate the lab tests or specimen.
-TODO determine impact of the new LOINC report on this topic https://loinc.org/file-access/?download-id=22762 the impact has not been assessed. I followed FHIR US-Core.
-TODO confirm: Are there other labReportTO.type values beyond SP, and MI? or is the example limited to just these? We really need to find a legitimate LOINC code for these two kinds of reports. I am not confident of the LOINC code I picked for the MI (LOINC#79381-0), I am slightly more confident of the code I picked for SP (LOINC#60567-5)
-- This profile should be based on US-Core DiagnosticReport profile for Laboratory Results Reporting and lab Observations. BUT IS NOT because us-core requires us Practitioner and we can't be compliant with that. So I have replicated the us-core requirements here.</t>
+    <t>A profile showing how LabReportTO is mapped into a FHIR DiagnosticReport, Observation, and Specimen.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.labReport</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.labReport</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -891,7 +891,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/LabReportVS</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/LabReportVS</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1088,7 +1088,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.organization|https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.practitioner)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization|https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.practitioner)
 </t>
   </si>
   <si>
@@ -1145,7 +1145,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.LabSpecimen) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.LabSpecimen) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1174,7 +1174,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.labTest) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.labTest) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1706,7 +1706,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="171.1953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="225.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1720,7 +1720,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.34765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="86.26953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="429">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -155,6 +155,10 @@
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -541,6 +545,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
   </si>
   <si>
     <t>CX.4 / EI-2-4</t>
@@ -1837,30 +1845,30 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1871,7 +1879,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -1880,19 +1888,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1942,13 +1950,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -1974,10 +1982,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1988,7 +1996,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -1997,16 +2005,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2057,19 +2065,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2089,10 +2097,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2103,28 +2111,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2174,19 +2182,19 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -2206,10 +2214,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2220,7 +2228,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2232,16 +2240,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2267,13 +2275,13 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
@@ -2291,19 +2299,19 @@
         <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -2323,21 +2331,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -2349,16 +2357,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2408,19 +2416,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -2429,7 +2437,7 @@
         <v>40</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>40</v>
@@ -2440,14 +2448,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2466,16 +2474,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2525,7 +2533,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -2546,7 +2554,7 @@
         <v>40</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>40</v>
@@ -2557,14 +2565,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2583,16 +2591,16 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2642,7 +2650,7 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -2654,7 +2662,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -2663,7 +2671,7 @@
         <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>40</v>
@@ -2674,14 +2682,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2694,25 +2702,25 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
@@ -2761,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2773,7 +2781,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -2782,7 +2790,7 @@
         <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>40</v>
@@ -2793,18 +2801,18 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2816,22 +2824,22 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
@@ -2868,17 +2876,17 @@
         <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2890,43 +2898,43 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
@@ -2935,22 +2943,22 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
@@ -2999,7 +3007,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3011,19 +3019,19 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>40</v>
@@ -3031,10 +3039,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3045,7 +3053,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -3057,13 +3065,13 @@
         <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3114,13 +3122,13 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
@@ -3135,7 +3143,7 @@
         <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>40</v>
@@ -3146,14 +3154,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3172,16 +3180,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3219,19 +3227,19 @@
         <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -3243,7 +3251,7 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -3252,7 +3260,7 @@
         <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>40</v>
@@ -3263,10 +3271,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3274,34 +3282,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>40</v>
@@ -3311,7 +3319,7 @@
         <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>40</v>
@@ -3326,13 +3334,13 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
@@ -3350,28 +3358,28 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>40</v>
@@ -3382,10 +3390,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3396,7 +3404,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -3405,22 +3413,22 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
@@ -3445,13 +3453,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -3469,28 +3477,28 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>40</v>
@@ -3501,10 +3509,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3515,7 +3523,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -3524,22 +3532,22 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>40</v>
@@ -3552,7 +3560,7 @@
         <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>40</v>
@@ -3588,28 +3596,28 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>40</v>
@@ -3620,10 +3628,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3634,7 +3642,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -3643,19 +3651,19 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3669,7 +3677,7 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>40</v>
@@ -3705,28 +3713,28 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>40</v>
@@ -3737,10 +3745,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3751,7 +3759,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -3760,16 +3768,16 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3820,28 +3828,28 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>40</v>
@@ -3852,10 +3860,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3866,7 +3874,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -3875,19 +3883,19 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3937,28 +3945,28 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>40</v>
@@ -3969,14 +3977,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3995,19 +4003,19 @@
         <v>40</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>40</v>
@@ -4056,7 +4064,7 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4068,16 +4076,16 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>40</v>
@@ -4088,10 +4096,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4102,7 +4110,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
@@ -4114,13 +4122,13 @@
         <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4171,13 +4179,13 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>40</v>
@@ -4192,7 +4200,7 @@
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>40</v>
@@ -4203,14 +4211,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4229,16 +4237,16 @@
         <v>40</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4276,19 +4284,19 @@
         <v>40</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4300,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -4309,7 +4317,7 @@
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>40</v>
@@ -4320,10 +4328,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4334,7 +4342,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
@@ -4343,19 +4351,19 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4405,19 +4413,19 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -4426,7 +4434,7 @@
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>40</v>
@@ -4437,10 +4445,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4451,7 +4459,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -4460,19 +4468,19 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4498,13 +4506,13 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>40</v>
@@ -4522,19 +4530,19 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -4543,7 +4551,7 @@
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>40</v>
@@ -4554,10 +4562,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4568,7 +4576,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -4577,19 +4585,19 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4639,19 +4647,19 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
@@ -4660,21 +4668,21 @@
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4685,7 +4693,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -4694,19 +4702,19 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4756,19 +4764,19 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -4777,7 +4785,7 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>40</v>
@@ -4788,10 +4796,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4799,32 +4807,32 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -4849,98 +4857,98 @@
         <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4966,29 +4974,29 @@
         <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -5000,43 +5008,43 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
@@ -5045,19 +5053,19 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5068,7 +5076,7 @@
         <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>40</v>
@@ -5083,13 +5091,13 @@
         <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>40</v>
@@ -5107,7 +5115,7 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5119,19 +5127,19 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>40</v>
@@ -5139,39 +5147,39 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5198,13 +5206,13 @@
         <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>40</v>
@@ -5222,42 +5230,42 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5268,7 +5276,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -5280,13 +5288,13 @@
         <v>40</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5337,13 +5345,13 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
@@ -5358,7 +5366,7 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>40</v>
@@ -5369,14 +5377,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5395,16 +5403,16 @@
         <v>40</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5442,19 +5450,19 @@
         <v>40</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -5466,7 +5474,7 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -5475,7 +5483,7 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>40</v>
@@ -5486,10 +5494,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5500,31 +5508,31 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
@@ -5549,11 +5557,11 @@
         <v>40</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>40</v>
@@ -5571,7 +5579,7 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5583,16 +5591,16 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>40</v>
@@ -5603,10 +5611,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5614,34 +5622,34 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>40</v>
@@ -5690,28 +5698,28 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>40</v>
@@ -5722,21 +5730,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -5745,20 +5753,20 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -5807,46 +5815,46 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5862,22 +5870,22 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -5926,31 +5934,31 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>40</v>
@@ -5958,21 +5966,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5981,22 +5989,22 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
@@ -6033,41 +6041,41 @@
         <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>40</v>
@@ -6075,47 +6083,47 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>40</v>
@@ -6164,77 +6172,77 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6283,46 +6291,46 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6332,28 +6340,28 @@
         <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>40</v>
@@ -6402,7 +6410,7 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6414,34 +6422,34 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6457,22 +6465,22 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -6521,7 +6529,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -6533,19 +6541,19 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>40</v>
@@ -6553,10 +6561,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6570,7 +6578,7 @@
         <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>40</v>
@@ -6579,19 +6587,19 @@
         <v>40</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>40</v>
@@ -6640,7 +6648,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -6652,34 +6660,34 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6689,7 +6697,7 @@
         <v>39</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>40</v>
@@ -6698,19 +6706,19 @@
         <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -6759,7 +6767,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -6771,30 +6779,30 @@
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6817,16 +6825,16 @@
         <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6876,7 +6884,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -6888,7 +6896,7 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
@@ -6897,7 +6905,7 @@
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>40</v>
@@ -6908,14 +6916,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6931,20 +6939,20 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -6993,7 +7001,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7005,16 +7013,16 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>40</v>
@@ -7025,10 +7033,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7039,7 +7047,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -7051,13 +7059,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7108,13 +7116,13 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
@@ -7129,7 +7137,7 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>40</v>
@@ -7140,14 +7148,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7166,16 +7174,16 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7225,7 +7233,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7237,7 +7245,7 @@
         <v>40</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
@@ -7246,7 +7254,7 @@
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>40</v>
@@ -7257,14 +7265,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7277,25 +7285,25 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -7344,7 +7352,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7356,7 +7364,7 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
@@ -7365,7 +7373,7 @@
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>40</v>
@@ -7376,10 +7384,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7390,7 +7398,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -7402,19 +7410,19 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -7463,19 +7471,19 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
@@ -7484,7 +7492,7 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>40</v>
@@ -7495,10 +7503,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7506,10 +7514,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -7518,16 +7526,16 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7578,19 +7586,19 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
@@ -7599,7 +7607,7 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>40</v>
@@ -7610,24 +7618,24 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>40</v>
@@ -7636,17 +7644,17 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>40</v>
@@ -7695,42 +7703,42 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7753,13 +7761,13 @@
         <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7786,13 +7794,13 @@
         <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>40</v>
@@ -7810,7 +7818,7 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -7822,16 +7830,16 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>40</v>
@@ -7842,10 +7850,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7868,19 +7876,19 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -7929,7 +7937,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -7941,16 +7949,16 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6</t>
+    <t>0.2.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:16:33-05:00</t>
+    <t>2023-11-15T14:14:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,6 +127,129 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
   </si>
   <si>
     <t>Report
@@ -1696,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1709,10 +1832,11 @@
     <col min="2" max="2" width="39.43359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="60.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="225.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1720,6255 +1844,6380 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="86.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.0859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="166.02734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="118.1328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="87.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO1" t="s" s="2">
+      <c r="M1" t="s" s="1">
         <v>49</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AC10" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>257</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>40</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="D30" t="s" s="2">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>127</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>128</v>
+        <v>305</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>177</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>294</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>40</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>40</v>
+        <v>363</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>329</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>351</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>40</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>40</v>
+        <v>388</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>40</v>
+        <v>409</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>40</v>
+        <v>415</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>40</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>40</v>
+        <v>425</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>126</v>
+        <v>426</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>127</v>
+        <v>427</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>128</v>
+        <v>428</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>129</v>
+        <v>424</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>130</v>
+        <v>416</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>393</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>174</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>396</v>
+        <v>177</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>40</v>
+        <v>434</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>400</v>
+        <v>141</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>401</v>
+        <v>147</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>402</v>
+        <v>135</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>404</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>126</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>40</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>423</v>
+        <v>192</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>460</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>40</v>
+        <v>461</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AO54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7978,7 +8227,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labReport.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="541">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DiagnosticReport</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-diagnosticreport-lab</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -237,6 +237,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -249,11 +252,8 @@
     <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
-  </si>
-  <si>
     <t>Report
-TestResultResultsLabsLaboratory</t>
+TestResultResultsLabsLaboratoryLab ResultLab Report</t>
   </si>
   <si>
     <t>0</t>
@@ -272,14 +272,14 @@
     <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports</t>
   </si>
   <si>
-    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.</t>
-  </si>
-  <si>
-    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-8:effective[x] SHALL be present if the status is 'partial', 'preliminary', 'final', 'amended', 'corrected' or 'appended' {(status='partial' or status='preliminary' or status='final' or status='amended' or status='corrected' or status='appended' ) implies effective.exists()}us-core-9:issued SHALL be present if the status is 'partial', 'preliminary', 'final', 'amended', 'corrected' or 'appended' {(status='partial' or status='preliminary' or status='final' or status='amended' or status='corrected' or status='appended' ) implies issued.exists()}</t>
+  </si>
+  <si>
+    <t>LabReportTO</t>
   </si>
   <si>
     <t>Event</t>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>LabReportTO</t>
   </si>
   <si>
     <t>DiagnosticReport.id</t>
@@ -511,6 +508,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>{StationNbr} and {LabReportTO.id}</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -521,9 +521,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {LabReportTO.id}</t>
   </si>
   <si>
     <t>DiagnosticReport.identifier:TOid</t>
@@ -857,12 +854,12 @@
     <t>Reference.identifier</t>
   </si>
   <si>
+    <t>LabReportTO.caseNumber</t>
+  </si>
+  <si>
     <t>.identifier</t>
   </si>
   <si>
-    <t>LabReportTO.caseNumber</t>
-  </si>
-  <si>
     <t>DiagnosticReport.basedOn.display</t>
   </si>
   <si>
@@ -890,7 +887,14 @@
     <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+  </si>
+  <si>
+    <t>us-core-8
+us-core-9</t>
+  </si>
+  <si>
+    <t>`final`</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -903,9 +907,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>`final`</t>
   </si>
   <si>
     <t>DiagnosticReport.category</t>
@@ -937,6 +938,9 @@
 </t>
   </si>
   <si>
+    <t>`LAB`</t>
+  </si>
+  <si>
     <t>OBR-24</t>
   </si>
   <si>
@@ -944,9 +948,6 @@
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>`laboratory`</t>
   </si>
   <si>
     <t>DiagnosticReport.category:LaboratorySlice</t>
@@ -970,16 +971,19 @@
 </t>
   </si>
   <si>
-    <t>Name/Code for this diagnostic report</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+    <t>US Core Laboratory Report Order Code</t>
+  </si>
+  <si>
+    <t>The test, panel or battery that was ordered.</t>
+  </si>
+  <si>
+    <t>UsageNote= The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.</t>
+  </si>
+  <si>
+    <t>LOINC codes</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-diagnosticreport-lab-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -992,9 +996,6 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>LabReportTO.type -- should be converted to LOINC:  MI -&gt; LOINC#79381-0,  SP -&gt; LOINC#60567-5</t>
   </si>
   <si>
     <t>DiagnosticReport.code.id</t>
@@ -1028,6 +1029,9 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
+    <t>LabReportTO.type -&gt; LOINC</t>
+  </si>
+  <si>
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
@@ -1050,6 +1054,9 @@
   </si>
   <si>
     <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>LabReportTO.title</t>
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
@@ -1065,7 +1072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -1078,6 +1085,9 @@
     <t>SHALL know the subject context.</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1088,9 +1098,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>patient</t>
   </si>
   <si>
     <t>DiagnosticReport.encounter</t>
@@ -1139,7 +1146,7 @@
 Period</t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for report</t>
+    <t>Diagnostically relevant time (typically the time of specimen collection)</t>
   </si>
   <si>
     <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -1155,6 +1162,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">us-core-8
+</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1191,7 +1202,7 @@
 </t>
   </si>
   <si>
-    <t>DateTime this version was made</t>
+    <t>When the report was released</t>
   </si>
   <si>
     <t>The date and time that this version of the report was made available to providers, typically after the report was reviewed and verified.</t>
@@ -1201,6 +1212,10 @@
   </si>
   <si>
     <t>Clinicians need to be able to check the date that the report was released.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us-core-9
+</t>
   </si>
   <si>
     <t>OBR-22</t>
@@ -1219,7 +1234,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization|https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.practitioner)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization)
 </t>
   </si>
   <si>
@@ -1235,6 +1250,9 @@
     <t>Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
   </si>
   <si>
+    <t>GetLocation(LabReportTO.facility or LabReportTO.result.labSiteId)</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1245,9 +1263,6 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>GetLocation(LabReportTO.facility or LabReportTO.result.labSiteId)</t>
   </si>
   <si>
     <t>DiagnosticReport.resultsInterpreter</t>
@@ -1292,10 +1307,10 @@
     <t>Need to be able to report information about the collected specimens on which the report is based.</t>
   </si>
   <si>
+    <t>Contained Specimen (LabReportTO.specimen.[LabSpecimenTO])</t>
+  </si>
+  <si>
     <t>SPM</t>
-  </si>
-  <si>
-    <t>Contained Specimen (LabReportTO.specimen.[LabSpecimenTO])</t>
   </si>
   <si>
     <t>DiagnosticReport.result</t>
@@ -1321,13 +1336,13 @@
     <t>Need to support individual results, or  groups of results, where the result grouping is arbitrary, but meaningful.</t>
   </si>
   <si>
+    <t>Contained Observation(LabResultTO)</t>
+  </si>
+  <si>
     <t>OBXs</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target</t>
-  </si>
-  <si>
-    <t>Contained Observation(LabResultTO)</t>
   </si>
   <si>
     <t>DiagnosticReport.imagingStudy</t>
@@ -1451,9 +1466,6 @@
     <t>inboundRelationship[typeCode="SPRT"].source[classCode=OBS, moodCode=EVN, code=LOINC:48767-8].value (type=ST)</t>
   </si>
   <si>
-    <t>LabReportTO.comment + LabReportTO.text</t>
-  </si>
-  <si>
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
@@ -1492,6 +1504,213 @@
   </si>
   <si>
     <t>text (type=ED)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.presentedForm.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.presentedForm.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.presentedForm.contentType</t>
+  </si>
+  <si>
+    <t>Mime type of the content, with charset etc.</t>
+  </si>
+  <si>
+    <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
+  </si>
+  <si>
+    <t>Processors of the data need to be able to know how to interpret the data.</t>
+  </si>
+  <si>
+    <t>text/plain</t>
+  </si>
+  <si>
+    <t>text/plain; charset=UTF-8, image/png</t>
+  </si>
+  <si>
+    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
+  </si>
+  <si>
+    <t>Attachment.contentType</t>
+  </si>
+  <si>
+    <t>`text/plain`</t>
+  </si>
+  <si>
+    <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
+  </si>
+  <si>
+    <t>./mediaType, ./charset</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.presentedForm.language</t>
+  </si>
+  <si>
+    <t>Human language of the content (BCP-47)</t>
+  </si>
+  <si>
+    <t>The human language of the content. The value can be any valid value according to BCP 47.</t>
+  </si>
+  <si>
+    <t>Users need to be able to choose between the languages in a set of attachments.</t>
+  </si>
+  <si>
+    <t>en-AU</t>
+  </si>
+  <si>
+    <t>Attachment.language</t>
+  </si>
+  <si>
+    <t>./language</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.presentedForm.data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base64Binary
+</t>
+  </si>
+  <si>
+    <t>Data inline, base64ed</t>
+  </si>
+  <si>
+    <t>The actual data of the attachment - a sequence of bytes, base64 encoded.</t>
+  </si>
+  <si>
+    <t>The base64-encoded data SHALL be expressed in the same character set as the base resource XML or JSON.</t>
+  </si>
+  <si>
+    <t>The data needs to able to be transmitted inline.</t>
+  </si>
+  <si>
+    <t>Attachment.data</t>
+  </si>
+  <si>
+    <t>base64(LabReportTO.text)</t>
+  </si>
+  <si>
+    <t>ED.5</t>
+  </si>
+  <si>
+    <t>./data</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.presentedForm.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url
+</t>
+  </si>
+  <si>
+    <t>Uri where the data can be found</t>
+  </si>
+  <si>
+    <t>A location where the data can be accessed.</t>
+  </si>
+  <si>
+    <t>If both data and url are provided, the url SHALL point to the same content as the data contains. Urls may be relative references or may reference transient locations such as a wrapping envelope using cid: though this has ramifications for using signatures. Relative URLs are interpreted relative to the service url, like a resource reference, rather than relative to the resource itself. If a URL is provided, it SHALL resolve to actual data.</t>
+  </si>
+  <si>
+    <t>The data needs to be transmitted by reference.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/logo-small.png</t>
+  </si>
+  <si>
+    <t>Attachment.url</t>
+  </si>
+  <si>
+    <t>RP.1+RP.2 - if they refer to a URL (see v2.6)</t>
+  </si>
+  <si>
+    <t>./reference/literal</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.presentedForm.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>Number of bytes of content (if url provided)</t>
+  </si>
+  <si>
+    <t>The number of bytes of data that make up this attachment (before base64 encoding, if that is done).</t>
+  </si>
+  <si>
+    <t>The number of bytes is redundant if the data is provided as a base64binary, but is useful if the data is provided as a url reference.</t>
+  </si>
+  <si>
+    <t>Representing the size allows applications to determine whether they should fetch the content automatically in advance, or refuse to fetch it at all.</t>
+  </si>
+  <si>
+    <t>Attachment.size</t>
+  </si>
+  <si>
+    <t>N/A (needs data type R3 proposal)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.presentedForm.hash</t>
+  </si>
+  <si>
+    <t>Hash of the data (sha-1, base64ed)</t>
+  </si>
+  <si>
+    <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
+  </si>
+  <si>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+  </si>
+  <si>
+    <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
+  </si>
+  <si>
+    <t>Attachment.hash</t>
+  </si>
+  <si>
+    <t>.integrityCheck[parent::ED/integrityCheckAlgorithm="SHA-1"]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.presentedForm.title</t>
+  </si>
+  <si>
+    <t>Label to display in place of the data</t>
+  </si>
+  <si>
+    <t>A label or set of text to display in place of the data.</t>
+  </si>
+  <si>
+    <t>Applications need a label to display to a human user in place of the actual data if the data cannot be rendered or perceived by the viewer.</t>
+  </si>
+  <si>
+    <t>Official Corporate Logo</t>
+  </si>
+  <si>
+    <t>Attachment.title</t>
+  </si>
+  <si>
+    <t>./title/data</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.presentedForm.creation</t>
+  </si>
+  <si>
+    <t>Date attachment was first created</t>
+  </si>
+  <si>
+    <t>The date that the attachment was first created.</t>
+  </si>
+  <si>
+    <t>This is often tracked as an integrity issue for use of the attachment.</t>
+  </si>
+  <si>
+    <t>Attachment.creation</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +2038,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1829,7 +2048,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.65234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="60.546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
@@ -1838,7 +2057,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="225.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="132.5546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1863,11 +2082,11 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="166.02734375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="118.1328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="87.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="65.34765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="166.02734375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="118.1328125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2032,7 +2251,7 @@
         <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2094,30 +2313,30 @@
         <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AN2" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO2" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2128,28 +2347,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2199,13 +2418,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2231,10 +2450,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2245,25 +2464,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2314,19 +2533,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2346,10 +2565,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2360,28 +2579,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2431,19 +2650,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2463,10 +2682,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2477,7 +2696,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2489,16 +2708,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2524,43 +2743,43 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2580,21 +2799,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2606,16 +2825,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2665,31 +2884,31 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>81</v>
@@ -2697,14 +2916,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2723,16 +2942,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2782,7 +3001,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2803,10 +3022,10 @@
         <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>81</v>
@@ -2814,14 +3033,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2840,16 +3059,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2899,7 +3118,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2911,7 +3130,7 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
@@ -2920,10 +3139,10 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>81</v>
@@ -2931,14 +3150,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2951,25 +3170,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -3018,7 +3237,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3030,7 +3249,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
@@ -3039,10 +3258,10 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>81</v>
@@ -3050,18 +3269,18 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
@@ -3073,22 +3292,22 @@
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3125,17 +3344,17 @@
         <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3147,67 +3366,67 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="D12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3256,7 +3475,7 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3268,30 +3487,30 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3302,7 +3521,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
@@ -3314,13 +3533,13 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3371,31 +3590,31 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>81</v>
@@ -3403,14 +3622,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3429,16 +3648,16 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3476,19 +3695,19 @@
         <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AC14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3500,7 +3719,7 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>81</v>
@@ -3509,10 +3728,10 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>81</v>
@@ -3520,10 +3739,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3531,34 +3750,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="J15" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3568,70 +3787,70 @@
         <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="T15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF15" t="s" s="2">
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3639,10 +3858,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3653,31 +3872,31 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3702,55 +3921,55 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -3758,10 +3977,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3772,31 +3991,31 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
@@ -3809,67 +4028,67 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="U17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -3877,10 +4096,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3891,28 +4110,28 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3926,67 +4145,67 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3994,10 +4213,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4008,25 +4227,25 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4077,31 +4296,31 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4109,10 +4328,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4123,28 +4342,28 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4194,31 +4413,31 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4226,21 +4445,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4252,19 +4471,19 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4313,7 +4532,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4325,19 +4544,19 @@
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4345,10 +4564,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4359,7 +4578,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4371,13 +4590,13 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4428,31 +4647,31 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4460,14 +4679,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4486,16 +4705,16 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4533,19 +4752,19 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC23" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AC23" t="s" s="2">
+      <c r="AD23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4557,7 +4776,7 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
@@ -4566,10 +4785,10 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4577,10 +4796,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4591,28 +4810,28 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4662,19 +4881,19 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI24" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
@@ -4683,10 +4902,10 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4694,10 +4913,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4708,28 +4927,28 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4755,43 +4974,43 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
@@ -4800,10 +5019,10 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4811,10 +5030,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4825,28 +5044,28 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4896,42 +5115,42 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AL26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AN26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AO26" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4942,28 +5161,28 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5013,19 +5232,19 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
@@ -5034,10 +5253,10 @@
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5045,10 +5264,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5056,32 +5275,32 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="I28" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5106,43 +5325,41 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>281</v>
@@ -5173,22 +5390,22 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>288</v>
@@ -5242,7 +5459,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>286</v>
@@ -5257,13 +5474,13 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>296</v>
@@ -5290,22 +5507,22 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="I30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>288</v>
@@ -5376,13 +5593,13 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>296</v>
@@ -5391,7 +5608,7 @@
         <v>297</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5407,22 +5624,22 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="I31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>304</v>
@@ -5430,7 +5647,9 @@
       <c r="M31" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5455,13 +5674,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5482,19 +5701,19 @@
         <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>309</v>
@@ -5525,7 +5744,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5537,13 +5756,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5594,31 +5813,31 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5633,7 +5852,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5652,16 +5871,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5699,19 +5918,19 @@
         <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC33" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AC33" t="s" s="2">
+      <c r="AD33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5723,7 +5942,7 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
@@ -5732,10 +5951,10 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5757,16 +5976,16 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>316</v>
@@ -5806,7 +6025,7 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
@@ -5840,19 +6059,19 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>81</v>
@@ -5860,10 +6079,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5871,34 +6090,34 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="I35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5947,31 +6166,31 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -5979,43 +6198,43 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="I36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6064,46 +6283,46 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6119,22 +6338,22 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6183,77 +6402,77 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6290,89 +6509,89 @@
         <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H39" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6421,77 +6640,77 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H40" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6540,46 +6759,46 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6589,28 +6808,28 @@
         <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6659,7 +6878,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6671,34 +6890,34 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6714,22 +6933,22 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6778,7 +6997,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6790,30 +7009,30 @@
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6827,7 +7046,7 @@
         <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
@@ -6836,19 +7055,19 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6897,7 +7116,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6909,34 +7128,34 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>411</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6946,7 +7165,7 @@
         <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
@@ -6955,19 +7174,19 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7016,7 +7235,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7028,30 +7247,30 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7074,16 +7293,16 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7133,7 +7352,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7145,7 +7364,7 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
@@ -7154,10 +7373,10 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7165,14 +7384,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7188,20 +7407,20 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7250,7 +7469,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7262,19 +7481,19 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>430</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7282,10 +7501,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7296,7 +7515,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>
@@ -7308,13 +7527,13 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7365,31 +7584,31 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7397,14 +7616,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7423,16 +7642,16 @@
         <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="M48" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7482,7 +7701,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7494,7 +7713,7 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7503,10 +7722,10 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7514,14 +7733,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7534,25 +7753,25 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7601,7 +7820,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7613,7 +7832,7 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
@@ -7622,10 +7841,10 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7633,10 +7852,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7647,7 +7866,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7659,19 +7878,19 @@
         <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7720,19 +7939,19 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -7741,10 +7960,10 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -7752,10 +7971,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7763,28 +7982,28 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7835,19 +8054,19 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
@@ -7856,10 +8075,10 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -7867,24 +8086,24 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>81</v>
@@ -7893,17 +8112,17 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7952,42 +8171,42 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8010,13 +8229,13 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8046,28 +8265,28 @@
         <v>291</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8079,19 +8298,19 @@
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8099,10 +8318,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8113,10 +8332,10 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>81</v>
@@ -8125,19 +8344,19 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8186,7 +8405,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8198,26 +8417,1202 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
       <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8227,7 +9622,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
